--- a/OnBoard/output/trust/bio/Bio_Trust_29.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_29.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q109"/>
+  <dimension ref="A1:Q200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,7 +447,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,12 +462,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F2">
@@ -477,19 +477,19 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>34</v>
+        <v>220</v>
       </c>
       <c r="I2">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDFI-2</t>
         </is>
       </c>
       <c r="L2">
@@ -499,7 +499,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -514,12 +514,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F3">
@@ -529,14 +529,19 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>28</v>
+        <v>176</v>
       </c>
       <c r="I3">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>M</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L3">
@@ -546,7 +551,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -561,12 +566,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F4">
@@ -576,14 +581,19 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>32</v>
+        <v>209</v>
       </c>
       <c r="I4">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L4">
@@ -593,7 +603,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -608,12 +618,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F5">
@@ -623,14 +633,19 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>30</v>
+        <v>225</v>
       </c>
       <c r="I5">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>M</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L5">
@@ -640,7 +655,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -655,12 +670,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F6">
@@ -670,14 +685,19 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="I6">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L6">
@@ -687,7 +707,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -702,12 +722,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F7">
@@ -717,14 +737,19 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>29</v>
+        <v>228</v>
       </c>
       <c r="I7">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
           <t>M</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>MEDFI-2</t>
         </is>
       </c>
       <c r="L7">
@@ -734,7 +759,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -749,12 +774,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F8">
@@ -764,19 +789,19 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>30</v>
+        <v>196</v>
       </c>
       <c r="I8">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L8">
@@ -786,7 +811,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -801,12 +826,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F9">
@@ -816,19 +841,19 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>29</v>
+        <v>192</v>
       </c>
       <c r="I9">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDFI-2</t>
         </is>
       </c>
       <c r="L9">
@@ -838,7 +863,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -853,12 +878,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F10">
@@ -868,14 +893,19 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="I10">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L10">
@@ -885,7 +915,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -900,12 +930,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F11">
@@ -915,14 +945,19 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>30</v>
+        <v>185</v>
       </c>
       <c r="I11">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L11">
@@ -932,7 +967,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -947,12 +982,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F12">
@@ -962,14 +997,19 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>33</v>
+        <v>354</v>
       </c>
       <c r="I12">
-        <v>17</v>
+        <v>346</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>MEDFI-2</t>
         </is>
       </c>
       <c r="L12">
@@ -979,7 +1019,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -994,12 +1034,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F13">
@@ -1009,14 +1049,19 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>27</v>
+        <v>199</v>
       </c>
       <c r="I13">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L13">
@@ -1026,7 +1071,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1041,12 +1086,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F14">
@@ -1056,19 +1101,14 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>34</v>
+        <v>240</v>
       </c>
       <c r="I14">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L14">
@@ -1078,7 +1118,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1093,12 +1133,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F15">
@@ -1108,14 +1148,14 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>26</v>
+        <v>235</v>
       </c>
       <c r="I15">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L15">
@@ -1125,7 +1165,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1140,12 +1180,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F16">
@@ -1155,14 +1195,14 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>34</v>
+        <v>240</v>
       </c>
       <c r="I16">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L16">
@@ -1172,7 +1212,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1187,12 +1227,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F17">
@@ -1202,19 +1242,14 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="I17">
-        <v>29</v>
+        <v>-1</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L17">
@@ -1224,7 +1259,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1239,12 +1274,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F18">
@@ -1254,14 +1289,14 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="I18">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L18">
@@ -1271,7 +1306,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1286,12 +1321,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F19">
@@ -1301,19 +1336,14 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="I19">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L19">
@@ -1323,7 +1353,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1338,12 +1368,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>BLENOCE</t>
         </is>
       </c>
       <c r="F20">
@@ -1353,14 +1383,14 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="I20">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L20">
@@ -1370,7 +1400,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1385,12 +1415,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBISUE</t>
         </is>
       </c>
       <c r="F21">
@@ -1400,14 +1430,14 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="I21">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L21">
@@ -1417,7 +1447,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1432,12 +1462,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F22">
@@ -1447,14 +1477,14 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="I22">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L22">
@@ -1464,7 +1494,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1479,7 +1509,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1494,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I23">
         <v>-1</v>
@@ -1511,7 +1541,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1526,7 +1556,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1541,7 +1571,7 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I24">
         <v>-1</v>
@@ -1558,7 +1588,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1573,12 +1603,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F25">
@@ -1588,19 +1618,14 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="I25">
-        <v>62</v>
+        <v>-1</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>SOSEM-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L25">
@@ -1610,7 +1635,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1625,12 +1650,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F26">
@@ -1640,19 +1665,14 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="I26">
-        <v>28</v>
+        <v>-1</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>SOSEF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L26">
@@ -1662,7 +1682,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1677,12 +1697,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>GOBISUE</t>
         </is>
       </c>
       <c r="F27">
@@ -1692,19 +1712,14 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="I27">
-        <v>47</v>
+        <v>-1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>SOSEF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L27">
@@ -1714,7 +1729,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1729,12 +1744,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F28">
@@ -1744,34 +1759,24 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>240</v>
+        <v>115</v>
       </c>
       <c r="I28">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>MEDFI-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L28">
         <v>0</v>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>NA l inferred</t>
-        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1786,12 +1791,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>LOLIVUL</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F29">
@@ -1801,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="I29">
         <v>-1</v>
@@ -1818,7 +1823,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1833,12 +1838,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F30">
@@ -1848,19 +1853,14 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="I30">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>FROSQ-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L30">
@@ -1870,7 +1870,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1885,12 +1885,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F31">
@@ -1900,19 +1900,14 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="I31">
-        <v>35</v>
+        <v>-1</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>FROSQ-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L31">
@@ -1922,7 +1917,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1937,12 +1932,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F32">
@@ -1952,19 +1947,14 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="I32">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>FROSQ-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L32">
@@ -1974,7 +1964,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1989,12 +1979,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F33">
@@ -2004,19 +1994,14 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>255</v>
+        <v>129</v>
       </c>
       <c r="I33">
-        <v>143</v>
+        <v>-1</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L33">
@@ -2026,7 +2011,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2046,7 +2031,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F34">
@@ -2073,7 +2058,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2093,7 +2078,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F35">
@@ -2103,14 +2088,14 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="I35">
-        <v>81</v>
+        <v>-1</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L35">
@@ -2120,7 +2105,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2140,7 +2125,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F36">
@@ -2150,19 +2135,14 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>29</v>
+        <v>141</v>
       </c>
       <c r="I36">
-        <v>51</v>
+        <v>-1</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>FROSQ-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L36">
@@ -2172,7 +2152,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2202,19 +2182,14 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I37">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>FROSQ-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L37">
@@ -2224,7 +2199,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2244,7 +2219,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>TORPMAR</t>
         </is>
       </c>
       <c r="F38">
@@ -2254,19 +2229,14 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="I38">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>FROSQ-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L38">
@@ -2276,7 +2246,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2296,7 +2266,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="F39">
@@ -2306,14 +2276,14 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>134</v>
+        <v>470</v>
       </c>
       <c r="I39">
-        <v>-1</v>
+        <v>805</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L39">
@@ -2323,7 +2293,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2343,7 +2313,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F40">
@@ -2353,14 +2323,19 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>142</v>
+        <v>48</v>
       </c>
       <c r="I40">
-        <v>-1</v>
+        <v>50</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L40">
@@ -2370,7 +2345,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2390,7 +2365,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F41">
@@ -2400,14 +2375,19 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>139</v>
+        <v>34</v>
       </c>
       <c r="I41">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L41">
@@ -2417,7 +2397,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2437,7 +2417,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F42">
@@ -2447,10 +2427,10 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I42">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2459,7 +2439,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>MEDPF-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L42">
@@ -2469,7 +2449,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2489,7 +2469,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F43">
@@ -2499,19 +2479,19 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="I43">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>SOSEM-2</t>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L43">
@@ -2521,7 +2501,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2541,7 +2521,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F44">
@@ -2551,19 +2531,14 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>262</v>
+        <v>33</v>
       </c>
       <c r="I44">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L44">
@@ -2573,7 +2548,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2593,7 +2568,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F45">
@@ -2603,19 +2578,14 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>249</v>
+        <v>35</v>
       </c>
       <c r="I45">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
           <t>M</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L45">
@@ -2625,7 +2595,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2655,19 +2625,14 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I46">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L46">
@@ -2677,7 +2642,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2707,10 +2672,10 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I47">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -2724,7 +2689,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2754,10 +2719,10 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I48">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -2771,7 +2736,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2801,10 +2766,10 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I49">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2818,7 +2783,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2851,7 +2816,7 @@
         <v>30</v>
       </c>
       <c r="I50">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2865,7 +2830,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2895,10 +2860,10 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I51">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -2912,7 +2877,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2942,19 +2907,14 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I52">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L52">
@@ -2964,7 +2924,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2984,7 +2944,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F53">
@@ -2994,10 +2954,10 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I53">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -3011,7 +2971,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3031,7 +2991,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F54">
@@ -3041,10 +3001,10 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I54">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -3063,7 +3023,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3083,7 +3043,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F55">
@@ -3093,14 +3053,19 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I55">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L55">
@@ -3110,7 +3075,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3130,7 +3095,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F56">
@@ -3140,14 +3105,19 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I56">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L56">
@@ -3157,7 +3127,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3177,7 +3147,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F57">
@@ -3187,14 +3157,19 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I57">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L57">
@@ -3204,7 +3179,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3224,7 +3199,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F58">
@@ -3234,14 +3209,19 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I58">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L58">
@@ -3251,7 +3231,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3271,7 +3251,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F59">
@@ -3281,10 +3261,10 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I59">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -3303,7 +3283,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3323,7 +3303,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F60">
@@ -3333,10 +3313,10 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I60">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -3355,7 +3335,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3375,7 +3355,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F61">
@@ -3385,10 +3365,10 @@
         <v>1</v>
       </c>
       <c r="H61">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I61">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -3407,7 +3387,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3427,7 +3407,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F62">
@@ -3437,14 +3417,19 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I62">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L62">
@@ -3454,7 +3439,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3474,7 +3459,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F63">
@@ -3484,14 +3469,19 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I63">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L63">
@@ -3501,7 +3491,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3521,7 +3511,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F64">
@@ -3531,14 +3521,19 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I64">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L64">
@@ -3548,7 +3543,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3568,7 +3563,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F65">
@@ -3578,14 +3573,19 @@
         <v>1</v>
       </c>
       <c r="H65">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I65">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L65">
@@ -3595,7 +3595,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3615,7 +3615,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F66">
@@ -3625,10 +3625,10 @@
         <v>1</v>
       </c>
       <c r="H66">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I66">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3667,7 +3667,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F67">
@@ -3677,14 +3677,19 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I67">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L67">
@@ -3694,7 +3699,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3714,7 +3719,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F68">
@@ -3724,10 +3729,10 @@
         <v>1</v>
       </c>
       <c r="H68">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I68">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -3746,7 +3751,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3766,7 +3771,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F69">
@@ -3776,10 +3781,10 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I69">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -3798,7 +3803,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3818,7 +3823,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F70">
@@ -3828,24 +3833,34 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I70">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L70">
         <v>0</v>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>NA l inferred</t>
+        </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3865,7 +3880,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F71">
@@ -3875,10 +3890,10 @@
         <v>1</v>
       </c>
       <c r="H71">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I71">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -3892,7 +3907,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3912,7 +3927,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F72">
@@ -3922,14 +3937,19 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I72">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L72">
@@ -3939,7 +3959,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3959,7 +3979,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F73">
@@ -3969,14 +3989,19 @@
         <v>1</v>
       </c>
       <c r="H73">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="I73">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L73">
@@ -3986,7 +4011,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4006,7 +4031,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F74">
@@ -4016,14 +4041,19 @@
         <v>1</v>
       </c>
       <c r="H74">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I74">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L74">
@@ -4033,7 +4063,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4053,7 +4083,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F75">
@@ -4063,14 +4093,19 @@
         <v>1</v>
       </c>
       <c r="H75">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="I75">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>SOSEF-1</t>
         </is>
       </c>
       <c r="L75">
@@ -4080,7 +4115,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4100,7 +4135,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F76">
@@ -4110,14 +4145,19 @@
         <v>1</v>
       </c>
       <c r="H76">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="I76">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>SOSEF-1</t>
         </is>
       </c>
       <c r="L76">
@@ -4127,7 +4167,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4147,7 +4187,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F77">
@@ -4157,14 +4197,19 @@
         <v>1</v>
       </c>
       <c r="H77">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="I77">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>SOSEF-1</t>
         </is>
       </c>
       <c r="L77">
@@ -4174,7 +4219,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4194,7 +4239,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>GOBISUE</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F78">
@@ -4204,14 +4249,19 @@
         <v>1</v>
       </c>
       <c r="H78">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="I78">
-        <v>-1</v>
+        <v>65</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>SOSEF-1</t>
         </is>
       </c>
       <c r="L78">
@@ -4221,7 +4271,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4241,7 +4291,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F79">
@@ -4251,34 +4301,29 @@
         <v>1</v>
       </c>
       <c r="H79">
-        <v>294</v>
+        <v>97</v>
       </c>
       <c r="I79">
-        <v>227</v>
+        <v>86</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>HOLRA-3</t>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L79">
         <v>0</v>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>SS7892</t>
-        </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4298,7 +4343,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F80">
@@ -4308,34 +4353,29 @@
         <v>1</v>
       </c>
       <c r="H80">
-        <v>328</v>
+        <v>100</v>
       </c>
       <c r="I80">
-        <v>338</v>
+        <v>123</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>HOLRA-3</t>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L80">
         <v>0</v>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>SS7893</t>
-        </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4355,7 +4395,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F81">
@@ -4365,14 +4405,19 @@
         <v>1</v>
       </c>
       <c r="H81">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="I81">
-        <v>-1</v>
+        <v>62</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
           <t>M</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L81">
@@ -4382,7 +4427,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4402,7 +4447,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F82">
@@ -4412,14 +4457,19 @@
         <v>1</v>
       </c>
       <c r="H82">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="I82">
-        <v>-1</v>
+        <v>109</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
           <t>M</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L82">
@@ -4429,7 +4479,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4449,7 +4499,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F83">
@@ -4459,14 +4509,19 @@
         <v>1</v>
       </c>
       <c r="H83">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="I83">
-        <v>-1</v>
+        <v>82</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L83">
@@ -4476,7 +4531,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4496,7 +4551,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F84">
@@ -4506,14 +4561,19 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="I84">
-        <v>-1</v>
+        <v>254</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
           <t>M</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L84">
@@ -4523,7 +4583,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4538,12 +4598,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F85">
@@ -4553,14 +4613,19 @@
         <v>1</v>
       </c>
       <c r="H85">
-        <v>23</v>
+        <v>280</v>
       </c>
       <c r="I85">
-        <v>-1</v>
+        <v>168</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>MEDFI-2</t>
         </is>
       </c>
       <c r="L85">
@@ -4570,7 +4635,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4585,12 +4650,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F86">
@@ -4600,14 +4665,19 @@
         <v>1</v>
       </c>
       <c r="H86">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="I86">
-        <v>-1</v>
+        <v>75</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L86">
@@ -4617,7 +4687,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4632,12 +4702,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F87">
@@ -4647,14 +4717,19 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="I87">
-        <v>-1</v>
+        <v>44</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L87">
@@ -4664,7 +4739,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4679,12 +4754,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F88">
@@ -4694,14 +4769,19 @@
         <v>1</v>
       </c>
       <c r="H88">
-        <v>36</v>
+        <v>275</v>
       </c>
       <c r="I88">
-        <v>-1</v>
+        <v>153</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>MEDFI-2</t>
         </is>
       </c>
       <c r="L88">
@@ -4711,7 +4791,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4726,12 +4806,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F89">
@@ -4741,14 +4821,19 @@
         <v>1</v>
       </c>
       <c r="H89">
-        <v>24</v>
+        <v>215</v>
       </c>
       <c r="I89">
-        <v>-1</v>
+        <v>81</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L89">
@@ -4758,7 +4843,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4773,12 +4858,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F90">
@@ -4788,14 +4873,19 @@
         <v>1</v>
       </c>
       <c r="H90">
-        <v>29</v>
+        <v>223</v>
       </c>
       <c r="I90">
-        <v>-1</v>
+        <v>80</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L90">
@@ -4805,7 +4895,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4820,12 +4910,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F91">
@@ -4835,14 +4925,19 @@
         <v>1</v>
       </c>
       <c r="H91">
-        <v>25</v>
+        <v>249</v>
       </c>
       <c r="I91">
-        <v>-1</v>
+        <v>126</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L91">
@@ -4852,7 +4947,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4867,12 +4962,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F92">
@@ -4882,14 +4977,19 @@
         <v>1</v>
       </c>
       <c r="H92">
-        <v>28</v>
+        <v>202</v>
       </c>
       <c r="I92">
-        <v>-1</v>
+        <v>60</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
           <t>M</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L92">
@@ -4899,7 +4999,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4914,12 +5014,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F93">
@@ -4929,14 +5029,19 @@
         <v>1</v>
       </c>
       <c r="H93">
-        <v>25</v>
+        <v>204</v>
       </c>
       <c r="I93">
-        <v>-1</v>
+        <v>66</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L93">
@@ -4946,7 +5051,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -4961,12 +5066,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F94">
@@ -4976,14 +5081,19 @@
         <v>1</v>
       </c>
       <c r="H94">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="I94">
-        <v>-1</v>
+        <v>65</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L94">
@@ -4993,7 +5103,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -5008,12 +5118,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F95">
@@ -5023,14 +5133,19 @@
         <v>1</v>
       </c>
       <c r="H95">
-        <v>25</v>
+        <v>192</v>
       </c>
       <c r="I95">
-        <v>-1</v>
+        <v>50</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L95">
@@ -5040,7 +5155,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -5055,12 +5170,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F96">
@@ -5070,14 +5185,19 @@
         <v>1</v>
       </c>
       <c r="H96">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="I96">
-        <v>-1</v>
+        <v>123</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>SOSEF-1</t>
         </is>
       </c>
       <c r="L96">
@@ -5087,7 +5207,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -5102,12 +5222,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F97">
@@ -5117,24 +5237,34 @@
         <v>1</v>
       </c>
       <c r="H97">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="I97">
-        <v>-1</v>
+        <v>55</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>SOSEF-1</t>
+        </is>
+      </c>
       <c r="L97">
         <v>0</v>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>NA l inferred</t>
+        </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -5149,12 +5279,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F98">
@@ -5164,14 +5294,19 @@
         <v>1</v>
       </c>
       <c r="H98">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="I98">
-        <v>-1</v>
+        <v>483</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>SOSEF-3</t>
         </is>
       </c>
       <c r="L98">
@@ -5181,7 +5316,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -5196,12 +5331,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F99">
@@ -5211,14 +5346,19 @@
         <v>1</v>
       </c>
       <c r="H99">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="I99">
-        <v>-1</v>
+        <v>112</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L99">
@@ -5228,7 +5368,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -5243,12 +5383,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F100">
@@ -5258,14 +5398,19 @@
         <v>1</v>
       </c>
       <c r="H100">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="I100">
-        <v>-1</v>
+        <v>74</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>SOSEF-1</t>
         </is>
       </c>
       <c r="L100">
@@ -5275,7 +5420,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -5290,12 +5435,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F101">
@@ -5305,14 +5450,19 @@
         <v>1</v>
       </c>
       <c r="H101">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="I101">
-        <v>-1</v>
+        <v>126</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
           <t>M</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L101">
@@ -5322,7 +5472,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -5337,12 +5487,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F102">
@@ -5352,14 +5502,19 @@
         <v>1</v>
       </c>
       <c r="H102">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="I102">
-        <v>-1</v>
+        <v>139</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>SOSEF-1</t>
         </is>
       </c>
       <c r="L102">
@@ -5369,7 +5524,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -5384,12 +5539,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F103">
@@ -5399,14 +5554,19 @@
         <v>1</v>
       </c>
       <c r="H103">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="I103">
-        <v>-1</v>
+        <v>130</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
           <t>M</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L103">
@@ -5416,7 +5576,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -5431,12 +5591,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F104">
@@ -5446,14 +5606,19 @@
         <v>1</v>
       </c>
       <c r="H104">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="I104">
-        <v>-1</v>
+        <v>63</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>SOSEM-1</t>
         </is>
       </c>
       <c r="L104">
@@ -5463,7 +5628,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -5478,12 +5643,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F105">
@@ -5493,14 +5658,19 @@
         <v>1</v>
       </c>
       <c r="H105">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="I105">
-        <v>-1</v>
+        <v>72</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L105">
@@ -5510,7 +5680,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -5525,12 +5695,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F106">
@@ -5540,14 +5710,14 @@
         <v>1</v>
       </c>
       <c r="H106">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="I106">
         <v>-1</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L106">
@@ -5557,7 +5727,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -5572,12 +5742,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F107">
@@ -5587,14 +5757,14 @@
         <v>1</v>
       </c>
       <c r="H107">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="I107">
         <v>-1</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L107">
@@ -5604,7 +5774,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -5619,12 +5789,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F108">
@@ -5634,14 +5804,14 @@
         <v>1</v>
       </c>
       <c r="H108">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="I108">
         <v>-1</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L108">
@@ -5651,7 +5821,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -5666,12 +5836,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F109">
@@ -5681,17 +5851,4589 @@
         <v>1</v>
       </c>
       <c r="H109">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="I109">
         <v>-1</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>ARNOLAT</t>
+        </is>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>97</v>
+      </c>
+      <c r="I110">
+        <v>-1</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>CITHMAC</t>
+        </is>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>165</v>
+      </c>
+      <c r="I111">
+        <v>-1</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>PAGEERY</t>
+        </is>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <v>159</v>
+      </c>
+      <c r="I112">
+        <v>-1</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>PAGEERY</t>
+        </is>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <v>165</v>
+      </c>
+      <c r="I113">
+        <v>-1</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>TRIGLUC</t>
+        </is>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>258</v>
+      </c>
+      <c r="I114">
+        <v>-1</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>MERLMER</t>
+        </is>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <v>288</v>
+      </c>
+      <c r="I115">
+        <v>203</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
-      <c r="L109">
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>MEDFI-2</t>
+        </is>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>RAJAAST</t>
+        </is>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <v>298</v>
+      </c>
+      <c r="I116">
+        <v>161</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>MEDSE-1</t>
+        </is>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>RAJAAST</t>
+        </is>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <v>515</v>
+      </c>
+      <c r="I117">
+        <v>939</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>MEDSE-4</t>
+        </is>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>PENAZTC</t>
+        </is>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <v>46</v>
+      </c>
+      <c r="I118">
+        <v>62</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>MELIKER</t>
+        </is>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>39</v>
+      </c>
+      <c r="I119">
+        <v>25</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>MELIKER</t>
+        </is>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <v>34</v>
+      </c>
+      <c r="I120">
+        <v>20</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>MELIKER</t>
+        </is>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>36</v>
+      </c>
+      <c r="I121">
+        <v>25</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>MELIKER</t>
+        </is>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>34</v>
+      </c>
+      <c r="I122">
+        <v>21</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>MELIKER</t>
+        </is>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <v>34</v>
+      </c>
+      <c r="I123">
+        <v>22</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>MELIKER</t>
+        </is>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>35</v>
+      </c>
+      <c r="I124">
+        <v>23</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>MELIKER</t>
+        </is>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+      <c r="H125">
+        <v>36</v>
+      </c>
+      <c r="I125">
+        <v>26</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>MELIKER</t>
+        </is>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <v>32</v>
+      </c>
+      <c r="I126">
+        <v>18</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>MELIKER</t>
+        </is>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+      <c r="H127">
+        <v>49</v>
+      </c>
+      <c r="I127">
+        <v>48</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>MELIKER</t>
+        </is>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+      <c r="H128">
+        <v>46</v>
+      </c>
+      <c r="I128">
+        <v>44</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>MELIKER</t>
+        </is>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>45</v>
+      </c>
+      <c r="I129">
+        <v>39</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>MELIKER</t>
+        </is>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>40</v>
+      </c>
+      <c r="I130">
+        <v>35</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>MELIKER</t>
+        </is>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <v>37</v>
+      </c>
+      <c r="I131">
+        <v>29</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>MELIKER</t>
+        </is>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+      <c r="H132">
+        <v>45</v>
+      </c>
+      <c r="I132">
+        <v>42</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>MELIKER</t>
+        </is>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+      <c r="H133">
+        <v>38</v>
+      </c>
+      <c r="I133">
+        <v>30</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>BUGLLUT</t>
+        </is>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="H134">
+        <v>102</v>
+      </c>
+      <c r="I134">
+        <v>-1</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+      <c r="H135">
+        <v>24</v>
+      </c>
+      <c r="I135">
+        <v>21</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
+        </is>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
+      <c r="H136">
+        <v>28</v>
+      </c>
+      <c r="I136">
+        <v>27</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
+        </is>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+      <c r="H137">
+        <v>25</v>
+      </c>
+      <c r="I137">
+        <v>27</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
+        </is>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138">
+        <v>1</v>
+      </c>
+      <c r="H138">
+        <v>25</v>
+      </c>
+      <c r="I138">
+        <v>16</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
+        </is>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="H139">
+        <v>23</v>
+      </c>
+      <c r="I139">
+        <v>21</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
+        </is>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+      <c r="H140">
+        <v>30</v>
+      </c>
+      <c r="I140">
+        <v>30</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
+        </is>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
+      </c>
+      <c r="H141">
+        <v>28</v>
+      </c>
+      <c r="I141">
+        <v>42</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>FROSQ-2</t>
+        </is>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>SQUIMAN</t>
+        </is>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+      <c r="H142">
+        <v>20</v>
+      </c>
+      <c r="I142">
+        <v>11</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>PAPELON</t>
+        </is>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <v>27</v>
+      </c>
+      <c r="I143">
+        <v>7</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>PAPELON</t>
+        </is>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="H144">
+        <v>24</v>
+      </c>
+      <c r="I144">
+        <v>7</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>PAPELON</t>
+        </is>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+      <c r="H145">
+        <v>23</v>
+      </c>
+      <c r="I145">
+        <v>6</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>PAPELON</t>
+        </is>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+      <c r="H146">
+        <v>21</v>
+      </c>
+      <c r="I146">
+        <v>5</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1-RAP</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>PAPELON</t>
+        </is>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+      <c r="H147">
+        <v>25</v>
+      </c>
+      <c r="I147">
+        <v>7</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>SOLEVUL</t>
+        </is>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+      <c r="H148">
+        <v>302</v>
+      </c>
+      <c r="I148">
+        <v>283</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
+        </is>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>SS8024</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>1 oto rotto</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>PAPELON</t>
+        </is>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="G149">
+        <v>1</v>
+      </c>
+      <c r="H149">
+        <v>20</v>
+      </c>
+      <c r="I149">
+        <v>5</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>PAPELON</t>
+        </is>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150">
+        <v>1</v>
+      </c>
+      <c r="H150">
+        <v>23</v>
+      </c>
+      <c r="I150">
+        <v>6</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
+      </c>
+      <c r="H151">
+        <v>25</v>
+      </c>
+      <c r="I151">
+        <v>-1</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
+      <c r="H152">
+        <v>28</v>
+      </c>
+      <c r="I152">
+        <v>-1</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="G153">
+        <v>1</v>
+      </c>
+      <c r="H153">
+        <v>28</v>
+      </c>
+      <c r="I153">
+        <v>-1</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+      <c r="G154">
+        <v>1</v>
+      </c>
+      <c r="H154">
+        <v>26</v>
+      </c>
+      <c r="I154">
+        <v>-1</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
+      </c>
+      <c r="H155">
+        <v>29</v>
+      </c>
+      <c r="I155">
+        <v>-1</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+      <c r="G156">
+        <v>1</v>
+      </c>
+      <c r="H156">
+        <v>26</v>
+      </c>
+      <c r="I156">
+        <v>-1</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+      <c r="G157">
+        <v>1</v>
+      </c>
+      <c r="H157">
+        <v>25</v>
+      </c>
+      <c r="I157">
+        <v>-1</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+      <c r="G158">
+        <v>1</v>
+      </c>
+      <c r="H158">
+        <v>25</v>
+      </c>
+      <c r="I158">
+        <v>-1</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>27</v>
+      </c>
+      <c r="I159">
+        <v>-1</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+      <c r="G160">
+        <v>1</v>
+      </c>
+      <c r="H160">
+        <v>24</v>
+      </c>
+      <c r="I160">
+        <v>-1</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F161">
+        <v>1</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <v>25</v>
+      </c>
+      <c r="I161">
+        <v>-1</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+      <c r="G162">
+        <v>1</v>
+      </c>
+      <c r="H162">
+        <v>24</v>
+      </c>
+      <c r="I162">
+        <v>-1</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F163">
+        <v>1</v>
+      </c>
+      <c r="G163">
+        <v>1</v>
+      </c>
+      <c r="H163">
+        <v>23</v>
+      </c>
+      <c r="I163">
+        <v>-1</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+      <c r="G164">
+        <v>1</v>
+      </c>
+      <c r="H164">
+        <v>29</v>
+      </c>
+      <c r="I164">
+        <v>-1</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
+      <c r="G165">
+        <v>1</v>
+      </c>
+      <c r="H165">
+        <v>27</v>
+      </c>
+      <c r="I165">
+        <v>-1</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+      <c r="G166">
+        <v>1</v>
+      </c>
+      <c r="H166">
+        <v>31</v>
+      </c>
+      <c r="I166">
+        <v>-1</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F167">
+        <v>1</v>
+      </c>
+      <c r="G167">
+        <v>1</v>
+      </c>
+      <c r="H167">
+        <v>25</v>
+      </c>
+      <c r="I167">
+        <v>-1</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F168">
+        <v>1</v>
+      </c>
+      <c r="G168">
+        <v>1</v>
+      </c>
+      <c r="H168">
+        <v>31</v>
+      </c>
+      <c r="I168">
+        <v>-1</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
+      <c r="G169">
+        <v>1</v>
+      </c>
+      <c r="H169">
+        <v>29</v>
+      </c>
+      <c r="I169">
+        <v>-1</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+      <c r="G170">
+        <v>1</v>
+      </c>
+      <c r="H170">
+        <v>27</v>
+      </c>
+      <c r="I170">
+        <v>-1</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F171">
+        <v>1</v>
+      </c>
+      <c r="G171">
+        <v>1</v>
+      </c>
+      <c r="H171">
+        <v>23</v>
+      </c>
+      <c r="I171">
+        <v>-1</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+      <c r="G172">
+        <v>1</v>
+      </c>
+      <c r="H172">
+        <v>23</v>
+      </c>
+      <c r="I172">
+        <v>-1</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F173">
+        <v>1</v>
+      </c>
+      <c r="G173">
+        <v>1</v>
+      </c>
+      <c r="H173">
+        <v>23</v>
+      </c>
+      <c r="I173">
+        <v>-1</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F174">
+        <v>1</v>
+      </c>
+      <c r="G174">
+        <v>1</v>
+      </c>
+      <c r="H174">
+        <v>26</v>
+      </c>
+      <c r="I174">
+        <v>-1</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F175">
+        <v>1</v>
+      </c>
+      <c r="G175">
+        <v>1</v>
+      </c>
+      <c r="H175">
+        <v>26</v>
+      </c>
+      <c r="I175">
+        <v>-1</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+      <c r="G176">
+        <v>1</v>
+      </c>
+      <c r="H176">
+        <v>26</v>
+      </c>
+      <c r="I176">
+        <v>-1</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
+      <c r="G177">
+        <v>1</v>
+      </c>
+      <c r="H177">
+        <v>29</v>
+      </c>
+      <c r="I177">
+        <v>-1</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+      <c r="G178">
+        <v>1</v>
+      </c>
+      <c r="H178">
+        <v>26</v>
+      </c>
+      <c r="I178">
+        <v>-1</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F179">
+        <v>1</v>
+      </c>
+      <c r="G179">
+        <v>1</v>
+      </c>
+      <c r="H179">
+        <v>21</v>
+      </c>
+      <c r="I179">
+        <v>-1</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F180">
+        <v>1</v>
+      </c>
+      <c r="G180">
+        <v>1</v>
+      </c>
+      <c r="H180">
+        <v>24</v>
+      </c>
+      <c r="I180">
+        <v>-1</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F181">
+        <v>1</v>
+      </c>
+      <c r="G181">
+        <v>1</v>
+      </c>
+      <c r="H181">
+        <v>24</v>
+      </c>
+      <c r="I181">
+        <v>-1</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F182">
+        <v>1</v>
+      </c>
+      <c r="G182">
+        <v>1</v>
+      </c>
+      <c r="H182">
+        <v>22</v>
+      </c>
+      <c r="I182">
+        <v>-1</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F183">
+        <v>1</v>
+      </c>
+      <c r="G183">
+        <v>1</v>
+      </c>
+      <c r="H183">
+        <v>27</v>
+      </c>
+      <c r="I183">
+        <v>-1</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F184">
+        <v>1</v>
+      </c>
+      <c r="G184">
+        <v>1</v>
+      </c>
+      <c r="H184">
+        <v>23</v>
+      </c>
+      <c r="I184">
+        <v>-1</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F185">
+        <v>1</v>
+      </c>
+      <c r="G185">
+        <v>1</v>
+      </c>
+      <c r="H185">
+        <v>26</v>
+      </c>
+      <c r="I185">
+        <v>-1</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F186">
+        <v>1</v>
+      </c>
+      <c r="G186">
+        <v>1</v>
+      </c>
+      <c r="H186">
+        <v>25</v>
+      </c>
+      <c r="I186">
+        <v>-1</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F187">
+        <v>1</v>
+      </c>
+      <c r="G187">
+        <v>1</v>
+      </c>
+      <c r="H187">
+        <v>21</v>
+      </c>
+      <c r="I187">
+        <v>-1</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F188">
+        <v>1</v>
+      </c>
+      <c r="G188">
+        <v>1</v>
+      </c>
+      <c r="H188">
+        <v>21</v>
+      </c>
+      <c r="I188">
+        <v>-1</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F189">
+        <v>1</v>
+      </c>
+      <c r="G189">
+        <v>1</v>
+      </c>
+      <c r="H189">
+        <v>21</v>
+      </c>
+      <c r="I189">
+        <v>-1</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F190">
+        <v>1</v>
+      </c>
+      <c r="G190">
+        <v>1</v>
+      </c>
+      <c r="H190">
+        <v>26</v>
+      </c>
+      <c r="I190">
+        <v>-1</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F191">
+        <v>1</v>
+      </c>
+      <c r="G191">
+        <v>1</v>
+      </c>
+      <c r="H191">
+        <v>27</v>
+      </c>
+      <c r="I191">
+        <v>-1</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
+      <c r="L191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F192">
+        <v>1</v>
+      </c>
+      <c r="G192">
+        <v>1</v>
+      </c>
+      <c r="H192">
+        <v>26</v>
+      </c>
+      <c r="I192">
+        <v>-1</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F193">
+        <v>1</v>
+      </c>
+      <c r="G193">
+        <v>1</v>
+      </c>
+      <c r="H193">
+        <v>23</v>
+      </c>
+      <c r="I193">
+        <v>-1</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F194">
+        <v>1</v>
+      </c>
+      <c r="G194">
+        <v>1</v>
+      </c>
+      <c r="H194">
+        <v>27</v>
+      </c>
+      <c r="I194">
+        <v>-1</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F195">
+        <v>1</v>
+      </c>
+      <c r="G195">
+        <v>1</v>
+      </c>
+      <c r="H195">
+        <v>25</v>
+      </c>
+      <c r="I195">
+        <v>-1</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
+      <c r="L195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F196">
+        <v>1</v>
+      </c>
+      <c r="G196">
+        <v>1</v>
+      </c>
+      <c r="H196">
+        <v>22</v>
+      </c>
+      <c r="I196">
+        <v>-1</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F197">
+        <v>1</v>
+      </c>
+      <c r="G197">
+        <v>1</v>
+      </c>
+      <c r="H197">
+        <v>22</v>
+      </c>
+      <c r="I197">
+        <v>-1</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F198">
+        <v>1</v>
+      </c>
+      <c r="G198">
+        <v>1</v>
+      </c>
+      <c r="H198">
+        <v>28</v>
+      </c>
+      <c r="I198">
+        <v>-1</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F199">
+        <v>1</v>
+      </c>
+      <c r="G199">
+        <v>1</v>
+      </c>
+      <c r="H199">
+        <v>24</v>
+      </c>
+      <c r="I199">
+        <v>-1</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
+        </is>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>LIOCDEP</t>
+        </is>
+      </c>
+      <c r="F200">
+        <v>1</v>
+      </c>
+      <c r="G200">
+        <v>1</v>
+      </c>
+      <c r="H200">
+        <v>24</v>
+      </c>
+      <c r="I200">
+        <v>-1</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
+        </is>
+      </c>
+      <c r="L200">
         <v>0</v>
       </c>
     </row>
